--- a/arquivos_postos/output/31391653000172.xlsx
+++ b/arquivos_postos/output/31391653000172.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>Afericao</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -477,6 +482,11 @@
       <c r="G2" t="n">
         <v>104.94</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -496,6 +506,11 @@
       <c r="G3" t="n">
         <v>237.54</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -515,6 +530,11 @@
       <c r="G4" t="n">
         <v>105.1</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -534,6 +554,11 @@
       <c r="G5" t="n">
         <v>128.82</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -553,6 +578,11 @@
       <c r="G6" t="n">
         <v>40</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +602,11 @@
       <c r="G7" t="n">
         <v>40</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -591,6 +626,11 @@
       <c r="G8" t="n">
         <v>41.2</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -610,6 +650,11 @@
       <c r="G9" t="n">
         <v>40</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -629,6 +674,11 @@
       <c r="G10" t="n">
         <v>40</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -648,6 +698,11 @@
       <c r="G11" t="n">
         <v>40</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -667,6 +722,11 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -686,6 +746,11 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -705,6 +770,11 @@
       <c r="G14" t="n">
         <v>40</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -723,6 +793,11 @@
       </c>
       <c r="G15" t="n">
         <v>40</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -736,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +845,11 @@
           <t>Recebimento</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -789,6 +869,11 @@
       <c r="E2" t="n">
         <v>65000</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -808,6 +893,11 @@
       <c r="E3" t="n">
         <v>9925</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -827,6 +917,11 @@
       <c r="E4" t="n">
         <v>10000</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -845,6 +940,11 @@
       </c>
       <c r="E5" t="n">
         <v>5000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
       </c>
     </row>
   </sheetData>
